--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3504.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3504.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.225489483413974</v>
+        <v>3.112114191055298</v>
       </c>
       <c r="B1">
-        <v>3.54264028620379</v>
+        <v>2.998554468154907</v>
       </c>
       <c r="C1">
-        <v>6.150563129813549</v>
+        <v>2.545324087142944</v>
       </c>
       <c r="D1">
-        <v>2.185681741011936</v>
+        <v>2.461684465408325</v>
       </c>
       <c r="E1">
-        <v>1.367787274917988</v>
+        <v>1.932547450065613</v>
       </c>
     </row>
   </sheetData>
